--- a/public/invoice/ArrInvoices.xlsx
+++ b/public/invoice/ArrInvoices.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="ProcessedData" sheetId="1" r:id="rId1"/>
+    <sheet name="ProcessedDataNew" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -472,6 +472,9 @@
       <c r="K2" t="str">
         <v>Remid next mont</v>
       </c>
+      <c r="L2" t="str">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -501,6 +504,9 @@
       <c r="I3" t="str">
         <v>Ready</v>
       </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -527,6 +533,9 @@
       <c r="I4" t="str">
         <v>Ready</v>
       </c>
+      <c r="L4" t="str">
+        <v>Fill in total price</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -553,6 +562,9 @@
       <c r="I5" t="str">
         <v>Ready</v>
       </c>
+      <c r="L5" t="str">
+        <v>Fill in total price</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -585,6 +597,9 @@
       <c r="K6" t="str">
         <v>Amazing project</v>
       </c>
+      <c r="L6" t="str">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -614,6 +629,9 @@
       <c r="I7" t="str">
         <v>Ready</v>
       </c>
+      <c r="L7" t="str">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -643,6 +661,9 @@
       <c r="J8" t="str">
         <v>INV89773354</v>
       </c>
+      <c r="L8" t="str">
+        <v>Fill in total price</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -672,6 +693,9 @@
       <c r="I9" t="str">
         <v>Ready</v>
       </c>
+      <c r="L9" t="str">
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -701,6 +725,9 @@
       <c r="I10" t="str">
         <v>Ready</v>
       </c>
+      <c r="L10" t="str">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -724,6 +751,9 @@
       <c r="J11" t="str">
         <v>INV12345678</v>
       </c>
+      <c r="L11" t="str">
+        <v>Fill in cust no, Fill in price per item, Fill in status</v>
+      </c>
     </row>
     <row r="12">
       <c r="C12" t="str">
@@ -735,6 +765,9 @@
       <c r="I12" t="str">
         <v>Ready</v>
       </c>
+      <c r="L12" t="str">
+        <v>Fill in customer, Fill in cust no, Fill in quantity, Fill in price per item, Fill in total price, Fill in invoice currency</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -764,6 +797,9 @@
       <c r="I13" t="str">
         <v>Ready</v>
       </c>
+      <c r="L13" t="str">
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -793,6 +829,9 @@
       <c r="I14" t="str">
         <v>Ready</v>
       </c>
+      <c r="L14" t="str">
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -822,6 +861,9 @@
       <c r="I15" t="str">
         <v>Ready</v>
       </c>
+      <c r="L15" t="str">
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -851,6 +893,9 @@
       <c r="I16" t="str">
         <v>Ready</v>
       </c>
+      <c r="L16" t="str">
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -879,6 +924,9 @@
       </c>
       <c r="I17" t="str">
         <v>Ready</v>
+      </c>
+      <c r="L17" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
